--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_17.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_13_17.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>240901.2734465166</v>
+        <v>242428.0906675157</v>
       </c>
     </row>
     <row r="7">
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>105.2660364171858</v>
+        <v>105.2660364171859</v>
       </c>
       <c r="K5" t="n">
         <v>106.5154726531472</v>
       </c>
       <c r="L5" t="n">
-        <v>94.8673556413963</v>
+        <v>94.86735564139639</v>
       </c>
       <c r="M5" t="n">
-        <v>73.56888138194574</v>
+        <v>73.56888138194583</v>
       </c>
       <c r="N5" t="n">
-        <v>70.09889029273145</v>
+        <v>70.09889029273157</v>
       </c>
       <c r="O5" t="n">
-        <v>79.66235518893401</v>
+        <v>79.6623551889341</v>
       </c>
       <c r="P5" t="n">
-        <v>102.8394729171564</v>
+        <v>102.8394729171565</v>
       </c>
       <c r="Q5" t="n">
         <v>125.8875013024845</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>81.70365636471666</v>
+        <v>81.70365636471669</v>
       </c>
       <c r="K6" t="n">
-        <v>60.70029489530536</v>
+        <v>60.7002948953054</v>
       </c>
       <c r="L6" t="n">
-        <v>34.82859175712517</v>
+        <v>34.82859175712524</v>
       </c>
       <c r="M6" t="n">
-        <v>21.09093172882149</v>
+        <v>21.09093172882157</v>
       </c>
       <c r="N6" t="n">
-        <v>7.094959150074175</v>
+        <v>7.09495915007426</v>
       </c>
       <c r="O6" t="n">
-        <v>28.93473908397449</v>
+        <v>28.93473908397456</v>
       </c>
       <c r="P6" t="n">
-        <v>42.75102878723305</v>
+        <v>42.75102878723311</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.00136130722973</v>
+        <v>79.00136130722977</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8374,22 +8374,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>82.48202502181962</v>
+        <v>82.48202502181965</v>
       </c>
       <c r="L7" t="n">
-        <v>75.3407179937502</v>
+        <v>75.34071799375025</v>
       </c>
       <c r="M7" t="n">
-        <v>76.1450286124481</v>
+        <v>76.14502861244816</v>
       </c>
       <c r="N7" t="n">
-        <v>66.39757517005847</v>
+        <v>66.3975751700585</v>
       </c>
       <c r="O7" t="n">
-        <v>81.84717906246618</v>
+        <v>81.84717906246622</v>
       </c>
       <c r="P7" t="n">
-        <v>89.28891752250331</v>
+        <v>89.28891752250334</v>
       </c>
       <c r="Q7" t="n">
         <v>65.34295837775146</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>92.06191329280011</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K8" t="n">
         <v>86.72591490550931</v>
@@ -8459,7 +8459,7 @@
         <v>70.31665934305323</v>
       </c>
       <c r="M8" t="n">
-        <v>46.25150133729363</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N8" t="n">
         <v>42.33948647951536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>73.83937108913167</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K9" t="n">
         <v>47.25897875440141</v>
@@ -8623,10 +8623,10 @@
         <v>55.71856618250388</v>
       </c>
       <c r="O10" t="n">
-        <v>71.98338581476828</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P10" t="n">
-        <v>80.84873837615825</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K11" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L11" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M11" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P11" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,10 +8766,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K12" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q12" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L13" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M13" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N13" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O13" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P13" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K14" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L14" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M14" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P14" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q14" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K15" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q15" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L16" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M16" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N16" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O16" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P16" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>71.92258334679383</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K17" t="n">
         <v>56.54227989916996</v>
@@ -9170,13 +9170,13 @@
         <v>32.8711910981084</v>
       </c>
       <c r="M17" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>13.46996085601003</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P17" t="n">
         <v>46.34579576917247</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K18" t="n">
         <v>26.75787480980772</v>
@@ -9334,10 +9334,10 @@
         <v>39.43061707215854</v>
       </c>
       <c r="O19" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P19" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K20" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L20" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M20" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P20" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q20" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,10 +9477,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K21" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,10 +9495,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q21" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L22" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M22" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N22" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O22" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P22" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K23" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L23" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M23" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P23" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q23" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K24" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q24" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9796,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L25" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M25" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N25" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O25" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P25" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K26" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L26" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M26" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P26" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q26" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K27" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9969,10 +9969,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q27" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10033,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L28" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M28" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N28" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O28" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P28" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K29" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L29" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M29" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P29" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q29" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K30" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10206,10 +10206,10 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q30" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L31" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M31" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N31" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O31" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P31" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K32" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L32" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M32" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P32" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q32" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K33" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10443,10 +10443,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q33" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10507,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L34" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M34" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N34" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O34" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P34" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K35" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L35" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M35" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P35" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q35" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K36" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10680,10 +10680,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q36" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10744,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L37" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M37" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N37" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O37" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P37" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K38" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L38" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M38" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P38" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q38" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K39" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q39" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L40" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M40" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N40" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O40" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P40" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K41" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L41" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M41" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P41" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q41" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,10 +11136,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K42" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11154,10 +11154,10 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q42" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11218,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L43" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M43" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N43" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O43" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P43" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>71.92258334679381</v>
+        <v>71.92258334679384</v>
       </c>
       <c r="K44" t="n">
-        <v>56.54227989916993</v>
+        <v>56.54227989916996</v>
       </c>
       <c r="L44" t="n">
-        <v>32.87119109810837</v>
+        <v>32.8711910981084</v>
       </c>
       <c r="M44" t="n">
-        <v>4.586202945486093</v>
+        <v>4.586202945486122</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>13.46996085601</v>
+        <v>13.46996085601006</v>
       </c>
       <c r="P44" t="n">
-        <v>46.34579576917244</v>
+        <v>46.34579576917247</v>
       </c>
       <c r="Q44" t="n">
-        <v>83.46310250126155</v>
+        <v>83.46310250126157</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>61.84452414151257</v>
+        <v>61.84452414151258</v>
       </c>
       <c r="K45" t="n">
-        <v>26.7578748098077</v>
+        <v>26.75787480980772</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,10 +11391,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>2.612367688219081</v>
+        <v>2.612367688219109</v>
       </c>
       <c r="Q45" t="n">
-        <v>52.1697293391627</v>
+        <v>52.16972933916271</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>62.00809140979794</v>
+        <v>62.00809140979796</v>
       </c>
       <c r="L46" t="n">
-        <v>49.14113189899255</v>
+        <v>49.14113189899257</v>
       </c>
       <c r="M46" t="n">
-        <v>48.52123852856</v>
+        <v>48.52123852856002</v>
       </c>
       <c r="N46" t="n">
-        <v>39.43061707215853</v>
+        <v>39.43061707215854</v>
       </c>
       <c r="O46" t="n">
-        <v>56.93882853040725</v>
+        <v>56.93882853040726</v>
       </c>
       <c r="P46" t="n">
-        <v>67.97552059180406</v>
+        <v>67.97552059180407</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -22568,7 +22568,7 @@
         <v>206.909162189371</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852173</v>
+        <v>4.097100052852174</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22802,7 +22802,7 @@
         <v>330.3308609764111</v>
       </c>
       <c r="I5" t="n">
-        <v>176.0541353143312</v>
+        <v>176.0541353143313</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22829,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>93.78337717756366</v>
+        <v>93.78337717756369</v>
       </c>
       <c r="S5" t="n">
         <v>188.6741588123577</v>
@@ -22881,7 +22881,7 @@
         <v>107.6216843086893</v>
       </c>
       <c r="I6" t="n">
-        <v>72.94885109242952</v>
+        <v>72.94885109242954</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,7 +22908,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>70.49735025707631</v>
+        <v>70.49735025707633</v>
       </c>
       <c r="S6" t="n">
         <v>162.8097499892768</v>
@@ -22963,7 +22963,7 @@
         <v>143.406240243694</v>
       </c>
       <c r="J7" t="n">
-        <v>65.04357759730169</v>
+        <v>65.04357759730171</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22984,7 +22984,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>52.62533053394627</v>
+        <v>52.62533053394629</v>
       </c>
       <c r="R7" t="n">
         <v>159.285294416798</v>
@@ -23066,7 +23066,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>84.01082088999308</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S8" t="n">
         <v>185.1290231762283</v>
@@ -23200,7 +23200,7 @@
         <v>141.3076148215571</v>
       </c>
       <c r="J10" t="n">
-        <v>60.10977774604451</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,7 +23221,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>46.78178798155719</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R10" t="n">
         <v>156.1475068297698</v>
@@ -23303,7 +23303,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S11" t="n">
         <v>179.7218745449422</v>
@@ -23437,7 +23437,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J13" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R13" t="n">
         <v>151.3616578248528</v>
@@ -23540,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S14" t="n">
         <v>179.7218745449422</v>
@@ -23674,7 +23674,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J16" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,7 +23695,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R16" t="n">
         <v>151.3616578248528</v>
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S17" t="n">
         <v>179.7218745449422</v>
@@ -23911,7 +23911,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J19" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -24014,7 +24014,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S20" t="n">
         <v>179.7218745449422</v>
@@ -24148,7 +24148,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J22" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,7 +24169,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R22" t="n">
         <v>151.3616578248528</v>
@@ -24251,7 +24251,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S23" t="n">
         <v>179.7218745449422</v>
@@ -24385,7 +24385,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J25" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,7 +24406,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R25" t="n">
         <v>151.3616578248528</v>
@@ -24488,7 +24488,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S26" t="n">
         <v>179.7218745449422</v>
@@ -24622,7 +24622,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J28" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,7 +24643,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R28" t="n">
         <v>151.3616578248528</v>
@@ -24725,7 +24725,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S29" t="n">
         <v>179.7218745449422</v>
@@ -24859,7 +24859,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J31" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,7 +24880,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R31" t="n">
         <v>151.3616578248528</v>
@@ -24962,7 +24962,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S32" t="n">
         <v>179.7218745449422</v>
@@ -25096,7 +25096,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J34" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,7 +25117,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R34" t="n">
         <v>151.3616578248528</v>
@@ -25199,7 +25199,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S35" t="n">
         <v>179.7218745449422</v>
@@ -25333,7 +25333,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,7 +25354,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R37" t="n">
         <v>151.3616578248528</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S38" t="n">
         <v>179.7218745449422</v>
@@ -25570,7 +25570,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J40" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25591,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R40" t="n">
         <v>151.3616578248528</v>
@@ -25673,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S41" t="n">
         <v>179.7218745449422</v>
@@ -25807,7 +25807,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J43" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,7 +25828,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R43" t="n">
         <v>151.3616578248528</v>
@@ -25910,7 +25910,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>69.10542099048567</v>
+        <v>69.10542099048568</v>
       </c>
       <c r="S44" t="n">
         <v>179.7218745449422</v>
@@ -26044,7 +26044,7 @@
         <v>138.1067275372333</v>
       </c>
       <c r="J46" t="n">
-        <v>52.58459624356987</v>
+        <v>52.58459624356988</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,7 +26065,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>37.86903925848995</v>
+        <v>37.86903925848996</v>
       </c>
       <c r="R46" t="n">
         <v>151.3616578248528</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>92739.38510646018</v>
+        <v>92739.38510646019</v>
       </c>
       <c r="C2" t="n">
-        <v>98800.7274822209</v>
+        <v>98800.72748222089</v>
       </c>
       <c r="D2" t="n">
-        <v>99917.42429591443</v>
+        <v>99917.42429591442</v>
       </c>
       <c r="E2" t="n">
         <v>101620.6442196286</v>
       </c>
       <c r="F2" t="n">
-        <v>101620.6442196286</v>
+        <v>101620.6442196285</v>
       </c>
       <c r="G2" t="n">
         <v>101620.6442196286</v>
       </c>
       <c r="H2" t="n">
-        <v>101620.6442196286</v>
+        <v>101620.6442196285</v>
       </c>
       <c r="I2" t="n">
         <v>101620.6442196286</v>
@@ -26366,13 +26366,13 @@
         <v>22175.99473096512</v>
       </c>
       <c r="C3" t="n">
-        <v>181286.336402001</v>
+        <v>181286.3364020009</v>
       </c>
       <c r="D3" t="n">
-        <v>33142.32881762739</v>
+        <v>33142.3288176275</v>
       </c>
       <c r="E3" t="n">
-        <v>47420.72226727416</v>
+        <v>47420.72226727411</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66844.92326958425</v>
+        <v>66348.57580579144</v>
       </c>
       <c r="C4" t="n">
-        <v>31686.79800681701</v>
+        <v>31451.51219815555</v>
       </c>
       <c r="D4" t="n">
-        <v>25007.23220441566</v>
+        <v>24821.54456092655</v>
       </c>
       <c r="E4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="F4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="G4" t="n">
-        <v>15858.89246925742</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="H4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="I4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="J4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="K4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="L4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="M4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="N4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="O4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
       <c r="P4" t="n">
-        <v>15858.89246925741</v>
+        <v>15741.13452040118</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>39312.96135688073</v>
       </c>
       <c r="E5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="F5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="G5" t="n">
         <v>6972.102563257328</v>
       </c>
       <c r="H5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="I5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="J5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="K5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="L5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="M5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="N5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="O5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
       <c r="P5" t="n">
-        <v>6972.10256325733</v>
+        <v>6972.102563257328</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30410.8246366612</v>
+        <v>-29914.47717286837</v>
       </c>
       <c r="C6" t="n">
-        <v>-152641.731014325</v>
+        <v>-152406.4452056634</v>
       </c>
       <c r="D6" t="n">
-        <v>2454.901916990646</v>
+        <v>2640.589560479631</v>
       </c>
       <c r="E6" t="n">
-        <v>31368.92691983968</v>
+        <v>31486.68486869596</v>
       </c>
       <c r="F6" t="n">
-        <v>78789.64918711384</v>
+        <v>78907.40713597005</v>
       </c>
       <c r="G6" t="n">
-        <v>78789.64918711383</v>
+        <v>78907.40713597008</v>
       </c>
       <c r="H6" t="n">
-        <v>78789.64918711383</v>
+        <v>78907.40713597005</v>
       </c>
       <c r="I6" t="n">
-        <v>78789.64918711384</v>
+        <v>78907.40713597008</v>
       </c>
       <c r="J6" t="n">
-        <v>78789.64918711384</v>
+        <v>78907.40713597008</v>
       </c>
       <c r="K6" t="n">
-        <v>78789.64918711383</v>
+        <v>78907.40713597008</v>
       </c>
       <c r="L6" t="n">
-        <v>78789.64918711384</v>
+        <v>78907.40713597008</v>
       </c>
       <c r="M6" t="n">
-        <v>78789.64918711384</v>
+        <v>78907.40713597008</v>
       </c>
       <c r="N6" t="n">
-        <v>78789.64918711384</v>
+        <v>78907.40713597008</v>
       </c>
       <c r="O6" t="n">
-        <v>78789.64918711384</v>
+        <v>78907.40713597008</v>
       </c>
       <c r="P6" t="n">
-        <v>78789.64918711384</v>
+        <v>78907.40713597008</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>222.0974352168749</v>
+        <v>222.0974352168748</v>
       </c>
       <c r="D3" t="n">
         <v>260.7963925174648</v>
@@ -26960,13 +26960,13 @@
         <v>23.01338268678932</v>
       </c>
       <c r="C3" t="n">
-        <v>199.0840525300856</v>
+        <v>199.0840525300855</v>
       </c>
       <c r="D3" t="n">
-        <v>38.6989573005899</v>
+        <v>38.69895730059002</v>
       </c>
       <c r="E3" t="n">
-        <v>59.02482598057782</v>
+        <v>59.02482598057776</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31039,19 +31039,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367558</v>
+        <v>0.0925161113036756</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887679</v>
+        <v>0.9474806248887678</v>
       </c>
       <c r="I2" t="n">
         <v>3.566727381034957</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760344</v>
+        <v>7.852189301760343</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324494</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L2" t="n">
         <v>14.5997362345548</v>
@@ -31072,10 +31072,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679516</v>
+        <v>5.811515176679517</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332509</v>
+        <v>2.10821088633251</v>
       </c>
       <c r="T2" t="n">
         <v>0.4049892772318401</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0495004835149808</v>
+        <v>0.04950048351498081</v>
       </c>
       <c r="H3" t="n">
         <v>0.4780704592104726</v>
@@ -31127,7 +31127,7 @@
         <v>1.704292963125436</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246499</v>
+        <v>4.676710155246498</v>
       </c>
       <c r="K3" t="n">
         <v>7.993242550750212</v>
@@ -31145,7 +31145,7 @@
         <v>11.77742425104019</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522957</v>
+        <v>9.452421277522959</v>
       </c>
       <c r="Q3" t="n">
         <v>6.318693299210532</v>
@@ -31218,7 +31218,7 @@
         <v>6.505241928988658</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847949</v>
+        <v>6.350561815847948</v>
       </c>
       <c r="O4" t="n">
         <v>5.865771705150827</v>
@@ -31236,7 +31236,7 @@
         <v>0.7232238460750018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588684</v>
+        <v>0.1773162272588685</v>
       </c>
       <c r="U4" t="n">
         <v>0.002263611411815345</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8928540109221096</v>
+        <v>0.892854010922109</v>
       </c>
       <c r="H5" t="n">
-        <v>9.143941139356057</v>
+        <v>9.143941139356052</v>
       </c>
       <c r="I5" t="n">
-        <v>34.42175425607466</v>
+        <v>34.42175425607464</v>
       </c>
       <c r="J5" t="n">
-        <v>75.77986810950047</v>
+        <v>75.77986810950043</v>
       </c>
       <c r="K5" t="n">
-        <v>113.5743783918334</v>
+        <v>113.5743783918333</v>
       </c>
       <c r="L5" t="n">
         <v>140.8990593285909</v>
       </c>
       <c r="M5" t="n">
-        <v>156.777351845327</v>
+        <v>156.7773518453269</v>
       </c>
       <c r="N5" t="n">
-        <v>159.3141733038595</v>
+        <v>159.3141733038593</v>
       </c>
       <c r="O5" t="n">
-        <v>150.4358562327527</v>
+        <v>150.4358562327526</v>
       </c>
       <c r="P5" t="n">
-        <v>128.3935228381131</v>
+        <v>128.393522838113</v>
       </c>
       <c r="Q5" t="n">
-        <v>96.41818857196503</v>
+        <v>96.41818857196498</v>
       </c>
       <c r="R5" t="n">
-        <v>56.08574076358602</v>
+        <v>56.08574076358598</v>
       </c>
       <c r="S5" t="n">
-        <v>20.34591077388759</v>
+        <v>20.34591077388758</v>
       </c>
       <c r="T5" t="n">
-        <v>3.908468432811537</v>
+        <v>3.908468432811535</v>
       </c>
       <c r="U5" t="n">
-        <v>0.07142832087376876</v>
+        <v>0.07142832087376871</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4777190115985612</v>
+        <v>0.4777190115985609</v>
       </c>
       <c r="H6" t="n">
-        <v>4.613759927807157</v>
+        <v>4.613759927807155</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44778175898555</v>
+        <v>16.44778175898554</v>
       </c>
       <c r="J6" t="n">
-        <v>45.13397030195004</v>
+        <v>45.13397030195001</v>
       </c>
       <c r="K6" t="n">
-        <v>77.14114407905363</v>
+        <v>77.14114407905359</v>
       </c>
       <c r="L6" t="n">
-        <v>103.725788022749</v>
+        <v>103.7257880227489</v>
       </c>
       <c r="M6" t="n">
-        <v>121.0431021931968</v>
+        <v>121.0431021931967</v>
       </c>
       <c r="N6" t="n">
-        <v>124.2467529332591</v>
+        <v>124.246752933259</v>
       </c>
       <c r="O6" t="n">
         <v>113.6615053604699</v>
       </c>
       <c r="P6" t="n">
-        <v>91.22337862709719</v>
+        <v>91.22337862709713</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.98041277879178</v>
+        <v>60.98041277879175</v>
       </c>
       <c r="R6" t="n">
-        <v>29.66048389556682</v>
+        <v>29.6604838955668</v>
       </c>
       <c r="S6" t="n">
-        <v>8.873421114560989</v>
+        <v>8.873421114560983</v>
       </c>
       <c r="T6" t="n">
-        <v>1.925542858153849</v>
+        <v>1.925542858153848</v>
       </c>
       <c r="U6" t="n">
-        <v>0.03142888234201062</v>
+        <v>0.0314288823420106</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4005035717025613</v>
+        <v>0.4005035717025611</v>
       </c>
       <c r="H7" t="n">
-        <v>3.560840846591866</v>
+        <v>3.560840846591864</v>
       </c>
       <c r="I7" t="n">
-        <v>12.0442346835643</v>
+        <v>12.04423468356429</v>
       </c>
       <c r="J7" t="n">
-        <v>28.31560251937108</v>
+        <v>28.31560251937107</v>
       </c>
       <c r="K7" t="n">
-        <v>46.53123314871575</v>
+        <v>46.53123314871572</v>
       </c>
       <c r="L7" t="n">
-        <v>59.54395828748808</v>
+        <v>59.54395828748805</v>
       </c>
       <c r="M7" t="n">
-        <v>62.78075533515695</v>
+        <v>62.7807553351569</v>
       </c>
       <c r="N7" t="n">
-        <v>61.28796929517473</v>
+        <v>61.28796929517468</v>
       </c>
       <c r="O7" t="n">
-        <v>56.6093593893766</v>
+        <v>56.60935938937656</v>
       </c>
       <c r="P7" t="n">
-        <v>48.43908652664431</v>
+        <v>48.43908652664427</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.53671271774812</v>
+        <v>33.5367127177481</v>
       </c>
       <c r="R7" t="n">
-        <v>18.00809696037152</v>
+        <v>18.00809696037151</v>
       </c>
       <c r="S7" t="n">
-        <v>6.979684972307362</v>
+        <v>6.979684972307357</v>
       </c>
       <c r="T7" t="n">
-        <v>1.711242533638216</v>
+        <v>1.711242533638215</v>
       </c>
       <c r="U7" t="n">
-        <v>0.02184564936559428</v>
+        <v>0.02184564936559426</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31522,7 +31522,7 @@
         <v>40.41950923629976</v>
       </c>
       <c r="J8" t="n">
-        <v>88.98399123388617</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K8" t="n">
         <v>133.3639361394712</v>
@@ -31546,7 +31546,7 @@
         <v>113.2183977184739</v>
       </c>
       <c r="R8" t="n">
-        <v>65.8582970511566</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S8" t="n">
         <v>23.89104641001701</v>
@@ -31555,7 +31555,7 @@
         <v>4.589492294453073</v>
       </c>
       <c r="U8" t="n">
-        <v>0.08387421668903385</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31595,7 +31595,7 @@
         <v>0.560958278245113</v>
       </c>
       <c r="H9" t="n">
-        <v>5.417676003051488</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I9" t="n">
         <v>19.31369510624622</v>
@@ -31628,7 +31628,7 @@
         <v>34.82862011770975</v>
       </c>
       <c r="S9" t="n">
-        <v>10.41955398407041</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T9" t="n">
         <v>2.261055516259907</v>
@@ -31680,7 +31680,7 @@
         <v>14.14286010570121</v>
       </c>
       <c r="J10" t="n">
-        <v>33.24940237062826</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K10" t="n">
         <v>54.63898190775737</v>
@@ -31695,13 +31695,13 @@
         <v>71.96697828272931</v>
       </c>
       <c r="O10" t="n">
-        <v>66.47315263707451</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P10" t="n">
-        <v>56.87926567298936</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q10" t="n">
-        <v>39.38025527013719</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R10" t="n">
         <v>21.14588454739968</v>
@@ -31756,16 +31756,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I11" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J11" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K11" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L11" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M11" t="n">
         <v>225.7600302817866</v>
@@ -31783,13 +31783,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R11" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S11" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T11" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U11" t="n">
         <v>0.1028570752958528</v>
@@ -31829,16 +31829,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H12" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I12" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J12" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K12" t="n">
         <v>111.0835641645513</v>
@@ -31856,22 +31856,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R12" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S12" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T12" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,37 +31908,37 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H13" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I13" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J13" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K13" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L13" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M13" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N13" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O13" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P13" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R13" t="n">
         <v>25.93173355231669</v>
@@ -31993,16 +31993,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I14" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J14" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K14" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L14" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M14" t="n">
         <v>225.7600302817866</v>
@@ -32020,13 +32020,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R14" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S14" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T14" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U14" t="n">
         <v>0.1028570752958528</v>
@@ -32066,16 +32066,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H15" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I15" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J15" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K15" t="n">
         <v>111.0835641645513</v>
@@ -32093,22 +32093,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R15" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S15" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T15" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,37 +32145,37 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H16" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I16" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J16" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K16" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L16" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M16" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N16" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O16" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P16" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R16" t="n">
         <v>25.93173355231669</v>
@@ -32233,7 +32233,7 @@
         <v>49.56746744179212</v>
       </c>
       <c r="J17" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K17" t="n">
         <v>163.5475711458106</v>
@@ -32257,13 +32257,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R17" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S17" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T17" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U17" t="n">
         <v>0.1028570752958528</v>
@@ -32312,7 +32312,7 @@
         <v>23.68487325669467</v>
       </c>
       <c r="J18" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K18" t="n">
         <v>111.0835641645513</v>
@@ -32342,7 +32342,7 @@
         <v>12.77776283338877</v>
       </c>
       <c r="T18" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U18" t="n">
         <v>0.04525771959877963</v>
@@ -32385,13 +32385,13 @@
         <v>0.5767267874554866</v>
       </c>
       <c r="H19" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I19" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J19" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K19" t="n">
         <v>67.00516676073742</v>
@@ -32406,10 +32406,10 @@
         <v>88.25492739307465</v>
       </c>
       <c r="O19" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P19" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q19" t="n">
         <v>48.29300399320443</v>
@@ -32467,16 +32467,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I20" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J20" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K20" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L20" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M20" t="n">
         <v>225.7600302817866</v>
@@ -32494,13 +32494,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R20" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S20" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T20" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U20" t="n">
         <v>0.1028570752958528</v>
@@ -32540,16 +32540,16 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H21" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I21" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J21" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K21" t="n">
         <v>111.0835641645513</v>
@@ -32567,22 +32567,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R21" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S21" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T21" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,37 +32619,37 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H22" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I22" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J22" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K22" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L22" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M22" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N22" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O22" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P22" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R22" t="n">
         <v>25.93173355231669</v>
@@ -32704,16 +32704,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I23" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J23" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K23" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L23" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M23" t="n">
         <v>225.7600302817866</v>
@@ -32731,13 +32731,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R23" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S23" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T23" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U23" t="n">
         <v>0.1028570752958528</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H24" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I24" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J24" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K24" t="n">
         <v>111.0835641645513</v>
@@ -32804,22 +32804,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R24" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S24" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T24" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,37 +32856,37 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H25" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I25" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J25" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K25" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L25" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M25" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N25" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O25" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P25" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R25" t="n">
         <v>25.93173355231669</v>
@@ -32941,16 +32941,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I26" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J26" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K26" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L26" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M26" t="n">
         <v>225.7600302817866</v>
@@ -32968,13 +32968,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R26" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S26" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T26" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U26" t="n">
         <v>0.1028570752958528</v>
@@ -33014,16 +33014,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H27" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I27" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J27" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K27" t="n">
         <v>111.0835641645513</v>
@@ -33041,22 +33041,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R27" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S27" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T27" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,37 +33093,37 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H28" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I28" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J28" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K28" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L28" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M28" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N28" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O28" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P28" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R28" t="n">
         <v>25.93173355231669</v>
@@ -33178,16 +33178,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I29" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J29" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K29" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L29" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M29" t="n">
         <v>225.7600302817866</v>
@@ -33205,13 +33205,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R29" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S29" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T29" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U29" t="n">
         <v>0.1028570752958528</v>
@@ -33251,16 +33251,16 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H30" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I30" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J30" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K30" t="n">
         <v>111.0835641645513</v>
@@ -33278,22 +33278,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R30" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S30" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T30" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,37 +33330,37 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H31" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I31" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J31" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K31" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L31" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M31" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N31" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O31" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P31" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R31" t="n">
         <v>25.93173355231669</v>
@@ -33415,16 +33415,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I32" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J32" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K32" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L32" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M32" t="n">
         <v>225.7600302817866</v>
@@ -33442,13 +33442,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R32" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S32" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T32" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U32" t="n">
         <v>0.1028570752958528</v>
@@ -33488,16 +33488,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H33" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I33" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J33" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K33" t="n">
         <v>111.0835641645513</v>
@@ -33515,22 +33515,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R33" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S33" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T33" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,37 +33567,37 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H34" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I34" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J34" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K34" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L34" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M34" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N34" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O34" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P34" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R34" t="n">
         <v>25.93173355231669</v>
@@ -33652,16 +33652,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I35" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J35" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K35" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L35" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M35" t="n">
         <v>225.7600302817866</v>
@@ -33679,13 +33679,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R35" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S35" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T35" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U35" t="n">
         <v>0.1028570752958528</v>
@@ -33725,16 +33725,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H36" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I36" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J36" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K36" t="n">
         <v>111.0835641645513</v>
@@ -33752,22 +33752,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R36" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S36" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T36" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,37 +33804,37 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H37" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I37" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J37" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K37" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L37" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M37" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N37" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O37" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P37" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R37" t="n">
         <v>25.93173355231669</v>
@@ -33889,16 +33889,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I38" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J38" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K38" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L38" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M38" t="n">
         <v>225.7600302817866</v>
@@ -33916,13 +33916,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R38" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S38" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T38" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U38" t="n">
         <v>0.1028570752958528</v>
@@ -33962,16 +33962,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H39" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I39" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J39" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K39" t="n">
         <v>111.0835641645513</v>
@@ -33989,22 +33989,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R39" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S39" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T39" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,37 +34041,37 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H40" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I40" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J40" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K40" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L40" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M40" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N40" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O40" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P40" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R40" t="n">
         <v>25.93173355231669</v>
@@ -34126,16 +34126,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I41" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J41" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K41" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L41" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M41" t="n">
         <v>225.7600302817866</v>
@@ -34153,13 +34153,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R41" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S41" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T41" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U41" t="n">
         <v>0.1028570752958528</v>
@@ -34199,16 +34199,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H42" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I42" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J42" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K42" t="n">
         <v>111.0835641645513</v>
@@ -34226,22 +34226,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R42" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S42" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T42" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,37 +34278,37 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H43" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I43" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J43" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K43" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L43" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M43" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N43" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O43" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P43" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R43" t="n">
         <v>25.93173355231669</v>
@@ -34363,16 +34363,16 @@
         <v>13.16731277967066</v>
       </c>
       <c r="I44" t="n">
-        <v>49.56746744179213</v>
+        <v>49.56746744179212</v>
       </c>
       <c r="J44" t="n">
-        <v>109.1233211798925</v>
+        <v>109.1233211798924</v>
       </c>
       <c r="K44" t="n">
         <v>163.5475711458106</v>
       </c>
       <c r="L44" t="n">
-        <v>202.8952238718789</v>
+        <v>202.8952238718788</v>
       </c>
       <c r="M44" t="n">
         <v>225.7600302817866</v>
@@ -34390,13 +34390,13 @@
         <v>138.8425873731879</v>
       </c>
       <c r="R44" t="n">
-        <v>80.76369695066401</v>
+        <v>80.763696950664</v>
       </c>
       <c r="S44" t="n">
-        <v>29.29819504130311</v>
+        <v>29.2981950413031</v>
       </c>
       <c r="T44" t="n">
-        <v>5.62821058884495</v>
+        <v>5.628210588844949</v>
       </c>
       <c r="U44" t="n">
         <v>0.1028570752958528</v>
@@ -34436,16 +34436,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6879173379014503</v>
+        <v>0.6879173379014502</v>
       </c>
       <c r="H45" t="n">
-        <v>6.643833237100849</v>
+        <v>6.643833237100848</v>
       </c>
       <c r="I45" t="n">
         <v>23.68487325669467</v>
       </c>
       <c r="J45" t="n">
-        <v>64.99310252515413</v>
+        <v>64.99310252515411</v>
       </c>
       <c r="K45" t="n">
         <v>111.0835641645513</v>
@@ -34463,22 +34463,22 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>131.3620397261112</v>
+        <v>131.3620397261111</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.81204474685882</v>
+        <v>87.8120447468588</v>
       </c>
       <c r="R45" t="n">
-        <v>42.71121857602164</v>
+        <v>42.71121857602163</v>
       </c>
       <c r="S45" t="n">
         <v>12.77776283338877</v>
       </c>
       <c r="T45" t="n">
-        <v>2.772789620751897</v>
+        <v>2.772789620751896</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04525771959877964</v>
+        <v>0.04525771959877963</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,37 +34515,37 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5767267874554867</v>
+        <v>0.5767267874554866</v>
       </c>
       <c r="H46" t="n">
-        <v>5.127625437558785</v>
+        <v>5.127625437558784</v>
       </c>
       <c r="I46" t="n">
         <v>17.343747390025</v>
       </c>
       <c r="J46" t="n">
-        <v>40.77458387310291</v>
+        <v>40.7745838731029</v>
       </c>
       <c r="K46" t="n">
-        <v>67.00516676073744</v>
+        <v>67.00516676073742</v>
       </c>
       <c r="L46" t="n">
-        <v>85.74354438224573</v>
+        <v>85.74354438224572</v>
       </c>
       <c r="M46" t="n">
-        <v>90.40454541904505</v>
+        <v>90.40454541904504</v>
       </c>
       <c r="N46" t="n">
-        <v>88.25492739307467</v>
+        <v>88.25492739307465</v>
       </c>
       <c r="O46" t="n">
-        <v>81.51770992143554</v>
+        <v>81.51770992143553</v>
       </c>
       <c r="P46" t="n">
-        <v>69.75248345734356</v>
+        <v>69.75248345734354</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.29300399320444</v>
+        <v>48.29300399320443</v>
       </c>
       <c r="R46" t="n">
         <v>25.93173355231669</v>
